--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9FABC7-C0D8-4944-A6A4-CA92437A614A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E02CAE-714C-4E34-B051-CA0EFC3CE653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -341,6 +341,60 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力CSVファイルのCSVファイルフォーマットがエラーとなった場合のふるまいは記載</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力CSVファイルが存在しない場合(またはプログラムの引数に入力CSVファイルを指定しなかった場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力CSVファイルが書き込めなかった場合</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -545,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,16 +612,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -576,6 +633,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -585,68 +702,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
-  <dimension ref="A2:Y14"/>
+  <dimension ref="A2:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:V13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -974,39 +1043,39 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1021,21 +1090,21 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1045,384 +1114,554 @@
       <c r="O3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="8" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="13" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="8" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="13" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="8" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="8" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="17" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="10" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="33"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="10" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="12"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="33"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="10" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="33"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="10" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="12"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="33"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="10" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="12"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="33"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="8" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
+    <row r="15" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="35"/>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+    </row>
+    <row r="17" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35"/>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+    </row>
+    <row r="18" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
+  <mergeCells count="96">
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
@@ -1439,60 +1678,14 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
